--- a/generated-files/TaskTemplate.xlsx
+++ b/generated-files/TaskTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\generated-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E96479-163A-4221-BB8E-BCF4BC9D9841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3594FA48-61C6-43E7-A4CC-1B0C48E6DC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9345" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskTemplate" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
